--- a/Short Term Solutions/Data Files/ubs_statement_template.xlsx
+++ b/Short Term Solutions/Data Files/ubs_statement_template.xlsx
@@ -466,6 +466,7 @@
     <col min="5" max="5" width="37.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="73.85546875" customWidth="1"/>
+    <col min="8" max="8" width="69.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
